--- a/amazon-statements/amazon-statements.xlsx
+++ b/amazon-statements/amazon-statements.xlsx
@@ -36,6 +36,18 @@
     <t>question_a</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>answer_a</t>
+  </si>
+  <si>
+    <t>What Illinois' gubernatorial hopefuls have to say about Amazon</t>
+  </si>
+  <si>
     <t>this is a question?</t>
   </si>
   <si>
@@ -81,18 +93,6 @@
     <t>not me ...</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>answer_a</t>
-  </si>
-  <si>
-    <t>What Illinois' gubernatorial hopefuls have to say about Amazon</t>
-  </si>
-  <si>
     <t>subhed</t>
   </si>
   <si>
@@ -111,34 +111,34 @@
     <t>source</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Graphic designed by Paula Friedrich/WBEZ &lt;br&gt; Photos via AP Photo, Jason Marck/WBEZ and courtesy of candidates</t>
+  </si>
+  <si>
+    <t>hdr_name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>hdr_district</t>
+  </si>
+  <si>
+    <t>hdr_party</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>hdr_comment</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
     <t>http://s3.amazonaws.com/wbez-dailygraphics/dailygraphics/graphics/amazon-statements/images/brucerauner.jpg</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Graphic designed by Paula Friedrich/WBEZ &lt;br&gt; Photos via AP Photo, Jason Marck/WBEZ and courtesy of candidates</t>
-  </si>
-  <si>
-    <t>hdr_name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>hdr_district</t>
-  </si>
-  <si>
-    <t>hdr_party</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>hdr_comment</t>
-  </si>
-  <si>
-    <t>Answer</t>
   </si>
   <si>
     <t xml:space="preserve">Rauner and Emanuel have presented a united front in their pursuit of Amazon. A commitment by the company to locate in Illinois would rank perhaps as the governor’s largest accomplishment in a stormy tenure with few legislative trophies, and it could become a cornerstone of his a 2018 re-election bid. 
@@ -243,15 +243,15 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
     </font>
     <font>
       <b/>
+    </font>
+    <font>
       <sz val="14.0"/>
     </font>
     <font/>
-    <font>
-      <sz val="14.0"/>
-    </font>
     <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
@@ -295,74 +295,74 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -374,22 +374,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,455 +397,455 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" ht="33.0" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" ht="33.0" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" ht="33.0" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" ht="33.0" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -857,9 +854,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,31 +866,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="7"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="9"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -912,23 +906,23 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
@@ -944,7 +938,7 @@
       <c r="E3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -962,7 +956,7 @@
       <c r="E4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -980,7 +974,7 @@
       <c r="E5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -998,7 +992,7 @@
       <c r="E6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1016,7 +1010,7 @@
       <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1034,113 +1028,113 @@
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="23"/>
@@ -1936,9 +1930,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,79 +1939,79 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
+      <c r="A10" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
